--- a/public/Employee Import Sample.xlsx
+++ b/public/Employee Import Sample.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94D03E0D-5070-456A-A3FA-9D04F78237D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F69280-C7B7-486E-8BF4-CDD7EA2EB550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{6CE3095E-9930-48C7-AEB2-E5418DF7F130}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="407">
   <si>
     <t>S.No</t>
   </si>
@@ -144,9 +133,6 @@
     <t>6 YEARS</t>
   </si>
   <si>
-    <t>www.sivajeepanda@gmail.com</t>
-  </si>
-  <si>
     <t>BOB</t>
   </si>
   <si>
@@ -195,9 +181,6 @@
     <t>3.5 YEARS</t>
   </si>
   <si>
-    <t>mantrisujit@gmail.com</t>
-  </si>
-  <si>
     <t>BOB-30500100002456</t>
   </si>
   <si>
@@ -261,12 +244,6 @@
     <t>4 YEARS</t>
   </si>
   <si>
-    <t>electrical@pabitragroups.com</t>
-  </si>
-  <si>
-    <t>wwww.akhilbarick77@gmail.com</t>
-  </si>
-  <si>
     <t>BOB:-33670100007641</t>
   </si>
   <si>
@@ -279,9 +256,6 @@
     <t>AT:- RAMNAGARPADA, PO:- BHAWANIPATNA, DIST:- KALAHANDI, ODISHA</t>
   </si>
   <si>
-    <t>9178783393/9438028041</t>
-  </si>
-  <si>
     <t>MR. PRAVAT KUMAR DUTTA</t>
   </si>
   <si>
@@ -444,9 +418,6 @@
     <t>TRANEE</t>
   </si>
   <si>
-    <t>rakesh.nayak021@gmail.com</t>
-  </si>
-  <si>
     <t>SURYAMANI NAYAK</t>
   </si>
   <si>
@@ -669,12 +640,6 @@
     <t>8 YEARS</t>
   </si>
   <si>
-    <t>hr.sheikh@pabitragroups.com</t>
-  </si>
-  <si>
-    <t>www.sheikhsahanawaz@live.com</t>
-  </si>
-  <si>
     <t>BOB-33670100008546</t>
   </si>
   <si>
@@ -714,9 +679,6 @@
     <t>EXUCUTIVE</t>
   </si>
   <si>
-    <t>www.santosh.kar999@gmail.com</t>
-  </si>
-  <si>
     <t>PRAFULLA KUMAR KAR</t>
   </si>
   <si>
@@ -759,9 +721,6 @@
     <t>B.TECH</t>
   </si>
   <si>
-    <t>www.nirmalmishra.gcelectrical@gmail.com</t>
-  </si>
-  <si>
     <t>NIRANJAN MISHRA</t>
   </si>
   <si>
@@ -843,9 +802,6 @@
     <t>1 YEAR</t>
   </si>
   <si>
-    <t>www.binod_dalai@rediffmail.com</t>
-  </si>
-  <si>
     <t>DWIJBAR DALAI</t>
   </si>
   <si>
@@ -882,9 +838,6 @@
     <t>NAYAGADA</t>
   </si>
   <si>
-    <t>prasantap59@gmail.com</t>
-  </si>
-  <si>
     <t>UPENDRA NATH PRADHAN</t>
   </si>
   <si>
@@ -909,9 +862,6 @@
     <t>BAJRANG POWER CONSTRUCTION</t>
   </si>
   <si>
-    <t>www.badalswain1972@rediffmail.com</t>
-  </si>
-  <si>
     <t>BATAKRISHNA SWAIN</t>
   </si>
   <si>
@@ -1014,9 +964,6 @@
     <t>MR. GANANATH KAHAR</t>
   </si>
   <si>
-    <t>gananathkahar2012@gmail.com</t>
-  </si>
-  <si>
     <t>BOB-33670100000918</t>
   </si>
   <si>
@@ -1110,9 +1057,6 @@
     <t>B.TECH IN ELECTRICAL</t>
   </si>
   <si>
-    <t>a.k.muduli30@gmail.com</t>
-  </si>
-  <si>
     <t>PARMOD KUMAR MUDULI</t>
   </si>
   <si>
@@ -1170,9 +1114,6 @@
     <t>ACCOUNTANT</t>
   </si>
   <si>
-    <t>ankit199188@gmail.com</t>
-  </si>
-  <si>
     <t>BINOD KUMAR SHAH</t>
   </si>
   <si>
@@ -1297,6 +1238,9 @@
   </si>
   <si>
     <t>MR. MAHESH SINGH</t>
+  </si>
+  <si>
+    <t>9178783393/ 9438028041</t>
   </si>
 </sst>
 </file>
@@ -1315,20 +1259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1340,30 +1280,19 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1403,125 +1332,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1547,44 +1432,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1634,9 +1519,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1692,249 +1577,302 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303A524-5D89-4139-AC54-0508BF7BD42A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>10002</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="4">
@@ -1955,7 +1893,7 @@
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1971,51 +1909,49 @@
       <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1">
         <v>7894423474</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>44</v>
+      <c r="Y2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Z2" s="1">
         <v>7894250210</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>10004</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>40096</v>
@@ -2024,52 +1960,49 @@
         <v>26230</v>
       </c>
       <c r="F3" s="4">
-        <f>D3</f>
         <v>40096</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="W3" s="1">
         <v>9692009969</v>
@@ -2077,26 +2010,26 @@
       <c r="X3" s="1">
         <v>7894423482</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>44</v>
+      <c r="Y3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Z3" s="1">
         <v>9938999676</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>10005</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="4">
         <v>40087</v>
@@ -2105,74 +2038,72 @@
         <v>17715</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Z4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>10006</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
+      <c r="C5" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="4">
         <v>40728</v>
@@ -2187,47 +2118,43 @@
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="U5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="W5" s="1">
         <v>9438248717</v>
@@ -2235,26 +2162,26 @@
       <c r="X5" s="1">
         <v>7894423481</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>82</v>
+      <c r="Y5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>10007</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
+      <c r="C6" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D6" s="4">
         <v>40621</v>
@@ -2263,50 +2190,45 @@
         <v>30075</v>
       </c>
       <c r="F6" s="4">
-        <f>D6</f>
         <v>40621</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="W6" s="1">
         <v>9556015225</v>
@@ -2314,26 +2236,26 @@
       <c r="X6" s="1">
         <v>7894423494</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>91</v>
+      <c r="Y6" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>10009</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>93</v>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="4">
         <v>41985</v>
@@ -2345,71 +2267,69 @@
         <v>41985</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="Z7" s="1">
         <v>985336881</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>10011</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>99</v>
+      <c r="C8" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="4">
         <v>41704</v>
@@ -2418,77 +2338,72 @@
         <v>20512</v>
       </c>
       <c r="F8" s="4">
-        <f>D8</f>
         <v>41704</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>104</v>
+        <v>40</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="W8" s="1">
         <v>9938312370</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>10013</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>105</v>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D9" s="4">
         <v>41989</v>
@@ -2500,75 +2415,73 @@
         <v>41989</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="W9" s="1">
         <v>8763919740</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="Z9" s="1">
         <v>8763919740</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>10016</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>114</v>
+      <c r="C10" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="4">
         <v>42401</v>
@@ -2577,75 +2490,72 @@
         <v>33193</v>
       </c>
       <c r="F10" s="4">
-        <f>D10</f>
         <v>42401</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="W10" s="1">
         <v>8455017845</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>119</v>
+        <v>42</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>10018</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>120</v>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D11" s="4">
         <v>40452</v>
@@ -2657,44 +2567,42 @@
         <v>40452</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="5" t="s">
-        <v>124</v>
+      <c r="N11" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="W11" s="1">
         <v>9668149802</v>
@@ -2702,26 +2610,26 @@
       <c r="X11" s="1">
         <v>7894423484</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>128</v>
+      <c r="Y11" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="Z11" s="1">
         <v>9668149802</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>10019</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>129</v>
+      <c r="C12" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="4">
         <v>40872</v>
@@ -2733,120 +2641,116 @@
         <v>40872</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X12" s="1">
         <v>7894423486</v>
       </c>
-      <c r="Y12" s="5" t="s">
-        <v>44</v>
+      <c r="Y12" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Z12" s="1">
         <v>9937982071</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>10022</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="10">
         <v>41789</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>34484</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>41789</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="Q13" s="9"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="W13" s="1">
         <v>9438751711</v>
@@ -2854,26 +2758,26 @@
       <c r="X13" s="1">
         <v>9777445904</v>
       </c>
-      <c r="Y13" s="5" t="s">
-        <v>44</v>
+      <c r="Y13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Z13" s="1">
         <v>9668440876</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>10024</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>140</v>
+      <c r="C14" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D14" s="4">
         <v>42009</v>
@@ -2882,77 +2786,72 @@
         <v>30873</v>
       </c>
       <c r="F14" s="4">
-        <f>D14</f>
         <v>42009</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="G14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>142</v>
+        <v>40</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="W14" s="1">
         <v>8658862727</v>
       </c>
       <c r="X14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="Z14" s="1">
         <v>9777971649</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>10025</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>143</v>
+      <c r="C15" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D15" s="4">
         <v>40878</v>
@@ -2964,73 +2863,69 @@
         <v>40878</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="W15" s="1">
         <v>8018030221</v>
       </c>
       <c r="X15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Z15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>10026</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>146</v>
+      <c r="C16" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D16" s="4">
         <v>42183</v>
@@ -3042,73 +2937,69 @@
         <v>42183</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>150</v>
+        <v>40</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="W16" s="1">
         <v>7894541583</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>150</v>
+        <v>42</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>10027</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>151</v>
+      <c r="C17" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D17" s="4">
         <v>42093</v>
@@ -3120,67 +3011,65 @@
         <v>42093</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>154</v>
+        <v>40</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="5" t="s">
-        <v>155</v>
+      <c r="Y17" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>10028</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>156</v>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D18" s="4">
         <v>42093</v>
@@ -3192,73 +3081,69 @@
         <v>42093</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>158</v>
+        <v>40</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="W18" s="1">
         <v>8018658018</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>158</v>
+        <v>42</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>10030</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>159</v>
+      <c r="C19" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D19" s="4">
         <v>38467</v>
@@ -3270,73 +3155,69 @@
         <v>38467</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="W19" s="1">
         <v>9438726074</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>169</v>
+        <v>42</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="Z19" s="1">
         <v>9431454749</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>10031</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>170</v>
+      <c r="C20" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D20" s="4">
         <v>38275</v>
@@ -3348,73 +3229,69 @@
         <v>38275</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="W20" s="1">
         <v>7894656056</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>169</v>
+        <v>42</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>10034</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>175</v>
+      <c r="C21" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D21" s="4">
         <v>41306</v>
@@ -3423,77 +3300,72 @@
         <v>35154</v>
       </c>
       <c r="F21" s="4">
-        <f>D21</f>
         <v>41306</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>43</v>
+      <c r="I21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>179</v>
+        <v>122</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="W21" s="1">
         <v>9556078721</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>180</v>
+        <v>42</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>10035</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>181</v>
+      <c r="C22" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D22" s="4">
         <v>40122</v>
@@ -3502,77 +3374,72 @@
         <v>24207</v>
       </c>
       <c r="F22" s="4">
-        <f>D22</f>
         <v>40122</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>162</v>
+      <c r="I22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>185</v>
+        <v>40</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="W22" s="1">
         <v>9937216676</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>185</v>
+        <v>42</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>10037</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>186</v>
+      <c r="C23" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D23" s="4">
         <v>41275</v>
@@ -3584,73 +3451,69 @@
         <v>41275</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>162</v>
+      <c r="I23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="W23" s="1">
         <v>9938703326</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>191</v>
+        <v>42</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="Z23" s="1">
         <v>8658357399</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>10042</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>192</v>
+      <c r="C24" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D24" s="4">
         <v>42085</v>
@@ -3662,75 +3525,71 @@
         <v>42085</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>195</v>
+        <v>40</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="W24" s="1">
         <v>7894303200</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>169</v>
+        <v>42</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>10045</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>196</v>
+      <c r="C25" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D25" s="4">
         <v>41275</v>
@@ -3742,194 +3601,185 @@
         <v>41275</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>199</v>
+        <v>122</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="W25" s="1">
         <v>9556343033</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>169</v>
+        <v>42</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="2">
         <v>10046</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="4">
         <v>41671</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="4">
         <v>33414</v>
       </c>
-      <c r="F26" s="13">
-        <f>D26</f>
+      <c r="F26" s="4">
         <v>41671</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="W26" s="14">
+      <c r="W26" s="1">
         <v>9853445559</v>
       </c>
-      <c r="X26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB26" s="14"/>
+      <c r="X26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="2">
         <v>10047</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-    </row>
-    <row r="28" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>10051</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>205</v>
+      <c r="C28" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="D28" s="4">
         <v>42262</v>
@@ -3941,50 +3791,46 @@
         <v>42262</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="5" t="s">
-        <v>210</v>
+      <c r="N28" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>216</v>
+        <v>40</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="W28" s="1">
         <v>8871011647</v>
@@ -3992,26 +3838,26 @@
       <c r="X28" s="1">
         <v>9078072700</v>
       </c>
-      <c r="Y28" s="21" t="s">
-        <v>217</v>
+      <c r="Y28" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="Z28" s="1">
         <v>8305264829</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>10053</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>218</v>
+      <c r="C29" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="D29" s="4">
         <v>41277</v>
@@ -4023,44 +3869,42 @@
         <v>41277</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="5" t="s">
-        <v>43</v>
+      <c r="N29" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>222</v>
+        <v>40</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="W29" s="1">
         <v>9861109541</v>
@@ -4068,28 +3912,28 @@
       <c r="X29" s="1">
         <v>9777445912</v>
       </c>
-      <c r="Y29" s="21" t="s">
-        <v>223</v>
+      <c r="Y29" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>10054</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>225</v>
+      <c r="C30" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="D30" s="4">
         <v>41275</v>
@@ -4101,71 +3945,69 @@
         <v>41275</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="5" t="s">
-        <v>43</v>
+      <c r="N30" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6" t="s">
-        <v>227</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>229</v>
+        <v>122</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="W30" s="1">
         <v>9439919484</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="5" t="s">
-        <v>229</v>
+        <v>42</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>10055</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>230</v>
+      <c r="C31" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="D31" s="4">
         <v>41395</v>
@@ -4177,77 +4019,75 @@
         <v>41395</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="5" t="s">
-        <v>232</v>
+      <c r="N31" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>236</v>
+        <v>40</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="W31" s="1">
         <v>7894423498</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="21" t="s">
-        <v>237</v>
+        <v>42</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>10056</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>238</v>
+      <c r="C32" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="D32" s="4">
         <v>42144</v>
@@ -4259,59 +4099,57 @@
         <v>42144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="5" t="s">
-        <v>43</v>
+      <c r="N32" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>244</v>
+        <v>40</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="W32" s="1">
         <v>8908988925</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>244</v>
+        <v>42</v>
+      </c>
+      <c r="Y32" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="Z32" s="1">
         <v>9778810137</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB32" s="1"/>
     </row>
@@ -4319,75 +4157,75 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="2">
         <v>10057</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="C33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="4">
         <v>41455</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="4">
         <v>26477</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="4">
         <v>41455</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="19" t="s">
+      <c r="G33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K33" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="V33" s="24"/>
-      <c r="W33" s="19">
+      <c r="J33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="1">
         <v>9040065244</v>
       </c>
-      <c r="X33" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB33" s="19"/>
-    </row>
-    <row r="34" spans="1:28" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="X33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>10059</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>249</v>
+      <c r="C34" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D34" s="4">
         <v>41526</v>
@@ -4399,73 +4237,69 @@
         <v>41526</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="5" t="s">
-        <v>110</v>
+      <c r="N34" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>252</v>
+        <v>40</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="W34" s="1">
         <v>7077267023</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" s="21" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>10060</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>254</v>
+      <c r="C35" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D35" s="4">
         <v>41701</v>
@@ -4477,71 +4311,69 @@
         <v>41701</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="5" t="s">
-        <v>43</v>
+      <c r="N35" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>257</v>
+        <v>184</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="W35" s="1">
         <v>7539034512</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="21" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>10061</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>258</v>
+      <c r="C36" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="D36" s="4">
         <v>41365</v>
@@ -4553,71 +4385,69 @@
         <v>41365</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="5" t="s">
-        <v>260</v>
+      <c r="N36" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>263</v>
+        <v>40</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="W36" s="1">
         <v>8018016578</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="21" t="s">
-        <v>253</v>
+        <v>42</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>10062</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>264</v>
+      <c r="C37" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="D37" s="4">
         <v>41613</v>
@@ -4629,73 +4459,69 @@
         <v>41613</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="5" t="s">
-        <v>43</v>
+      <c r="N37" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>266</v>
+        <v>40</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="W37" s="1">
         <v>7077509530</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>266</v>
+        <v>42</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>10063</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>267</v>
+      <c r="C38" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="D38" s="4">
         <v>41609</v>
@@ -4707,71 +4533,69 @@
         <v>41609</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="5" t="s">
-        <v>268</v>
+      <c r="N38" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6" t="s">
-        <v>270</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>272</v>
+        <v>40</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="W38" s="1">
         <v>9438362161</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>272</v>
+        <v>42</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="Z38" s="1">
         <v>8093655995</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>10064</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>273</v>
+      <c r="C39" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="D39" s="4">
         <v>41697</v>
@@ -4783,73 +4607,69 @@
         <v>41697</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="5" t="s">
-        <v>43</v>
+      <c r="N39" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>276</v>
+        <v>40</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="W39" s="1">
         <v>9938279289</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>276</v>
+        <v>42</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>10065</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>277</v>
+      <c r="C40" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="D40" s="4">
         <v>41803</v>
@@ -4861,44 +4681,42 @@
         <v>41803</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="5" t="s">
-        <v>43</v>
+      <c r="N40" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>280</v>
+        <v>184</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="W40" s="1">
         <v>9777445908</v>
@@ -4906,26 +4724,26 @@
       <c r="X40" s="1">
         <v>9777445908</v>
       </c>
-      <c r="Y40" s="5" t="s">
-        <v>280</v>
+      <c r="Y40" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>10066</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>281</v>
+      <c r="C41" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="D41" s="4">
         <v>41808</v>
@@ -4937,59 +4755,55 @@
         <v>41808</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="5" t="s">
-        <v>43</v>
+      <c r="N41" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>283</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="W41" s="1">
         <v>8908827411</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y41" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="Y41" s="6"/>
       <c r="Z41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB41" s="1"/>
     </row>
@@ -5000,8 +4814,8 @@
       <c r="B42" s="2">
         <v>10069</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>287</v>
+      <c r="C42" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="D42" s="4">
         <v>41671</v>
@@ -5013,67 +4827,63 @@
         <v>41671</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="5" t="s">
-        <v>43</v>
+      <c r="N42" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V42" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="V42" s="8"/>
       <c r="W42" s="1">
         <v>9040613187</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y42" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>10072</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>289</v>
+      <c r="C43" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="D43" s="4">
         <v>42280</v>
@@ -5085,75 +4895,71 @@
         <v>42280</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="5" t="s">
-        <v>291</v>
+      <c r="N43" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="O43" s="1">
         <v>7</v>
       </c>
-      <c r="P43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>294</v>
+        <v>122</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="W43" s="1">
         <v>7077164643</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>295</v>
+        <v>42</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>10073</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>296</v>
+      <c r="C44" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="D44" s="4">
         <v>42271</v>
@@ -5165,75 +4971,71 @@
         <v>42271</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="5" t="s">
-        <v>43</v>
+      <c r="N44" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>300</v>
+        <v>40</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="W44" s="1">
         <v>9078628639</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y44" s="21" t="s">
-        <v>295</v>
+        <v>42</v>
+      </c>
+      <c r="Y44" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>10074</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>301</v>
+      <c r="C45" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D45" s="4">
         <v>42285</v>
@@ -5245,73 +5047,69 @@
         <v>42285</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="N45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="U45" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="V45" s="21" t="s">
-        <v>305</v>
+      <c r="T45" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="W45" s="1">
         <v>8598014394</v>
       </c>
-      <c r="X45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y45" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA45" s="8" t="s">
-        <v>45</v>
+      <c r="X45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>10084</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>307</v>
+      <c r="C46" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="D46" s="4">
         <v>41410</v>
@@ -5320,77 +5118,72 @@
         <v>28491</v>
       </c>
       <c r="F46" s="4">
-        <f>D46</f>
         <v>41410</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="5" t="s">
-        <v>43</v>
+      <c r="N46" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V46" s="5" t="s">
-        <v>309</v>
+        <v>40</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="W46" s="1">
         <v>9178564986</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>309</v>
+        <v>42</v>
+      </c>
+      <c r="Y46" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>10085</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>310</v>
+      <c r="C47" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D47" s="4">
         <v>42040</v>
@@ -5399,77 +5192,72 @@
         <v>31976</v>
       </c>
       <c r="F47" s="4">
-        <f>D47</f>
         <v>42040</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M47" s="1"/>
-      <c r="N47" s="5" t="s">
-        <v>43</v>
+      <c r="N47" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>313</v>
+        <v>184</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="W47" s="1">
         <v>8658261446</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y47" s="5" t="s">
-        <v>313</v>
+        <v>42</v>
+      </c>
+      <c r="Y47" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>10088</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>314</v>
+      <c r="C48" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="D48" s="4">
         <v>42303</v>
@@ -5478,65 +5266,60 @@
         <v>34169</v>
       </c>
       <c r="F48" s="4">
-        <f>D48</f>
         <v>42303</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="5" t="s">
-        <v>43</v>
+      <c r="N48" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>318</v>
+        <v>122</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="W48" s="1">
         <v>9078803169</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y48" s="5" t="s">
-        <v>318</v>
+        <v>42</v>
+      </c>
+      <c r="Y48" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -5544,47 +5327,47 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="2">
         <v>10092</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-    </row>
-    <row r="50" spans="1:28" ht="210" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>10095</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>320</v>
+      <c r="C50" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="D50" s="4">
         <v>41772</v>
@@ -5593,79 +5376,74 @@
         <v>20276</v>
       </c>
       <c r="F50" s="4">
-        <f>D50</f>
         <v>41772</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="5" t="s">
-        <v>43</v>
+      <c r="N50" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>323</v>
+        <v>273</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="W50" s="1">
         <v>9937153312</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>324</v>
+        <v>42</v>
+      </c>
+      <c r="Y50" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>10097</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>326</v>
+      <c r="C51" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D51" s="4">
         <v>42360</v>
@@ -5674,67 +5452,64 @@
         <v>32690</v>
       </c>
       <c r="F51" s="4">
-        <f>D51</f>
         <v>42360</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="M51" s="1"/>
-      <c r="N51" s="5" t="s">
-        <v>110</v>
+      <c r="N51" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
-        <v>327</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>330</v>
+        <v>184</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="W51" s="1">
         <v>9124641634</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y51" s="5" t="s">
-        <v>330</v>
+        <v>42</v>
+      </c>
+      <c r="Y51" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="Z51" s="1">
         <v>9556366822</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB51" s="1"/>
     </row>
@@ -5745,44 +5520,44 @@
       <c r="B52" s="2">
         <v>10100</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-    </row>
-    <row r="53" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="C52" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="2">
         <v>10110</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>332</v>
+      <c r="C53" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D53" s="4">
         <v>42381</v>
@@ -5794,61 +5569,57 @@
         <v>42379</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O53" s="1">
         <v>4</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>337</v>
+        <v>184</v>
+      </c>
+      <c r="V53" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="W53" s="1">
         <v>9438642504</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>338</v>
+        <v>42</v>
+      </c>
+      <c r="Y53" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB53" s="1"/>
     </row>
@@ -5856,55 +5627,55 @@
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="2">
         <v>10114</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-    </row>
-    <row r="55" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+      <c r="C54" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="2">
         <v>10115</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>341</v>
+      <c r="C55" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="D55" s="4">
         <v>42425</v>
@@ -5913,65 +5684,60 @@
         <v>33826</v>
       </c>
       <c r="F55" s="4">
-        <f>D55</f>
         <v>42425</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>346</v>
+        <v>184</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="W55" s="1">
         <v>7077996868</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>347</v>
+        <v>42</v>
+      </c>
+      <c r="Y55" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB55" s="1"/>
     </row>
@@ -5982,18 +5748,18 @@
       <c r="B56" s="2">
         <v>10117</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>348</v>
+      <c r="C56" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -6007,10 +5773,10 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="5"/>
+      <c r="V56" s="8"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="5"/>
+      <c r="Y56" s="8"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -6022,18 +5788,18 @@
       <c r="B57" s="2">
         <v>10118</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>350</v>
+      <c r="C57" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -6047,10 +5813,10 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="5"/>
+      <c r="V57" s="8"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="5"/>
+      <c r="Y57" s="8"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -6062,18 +5828,18 @@
       <c r="B58" s="2">
         <v>10119</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>352</v>
+      <c r="C58" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -6087,10 +5853,10 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="5"/>
+      <c r="V58" s="8"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="5"/>
+      <c r="Y58" s="8"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -6102,18 +5868,18 @@
       <c r="B59" s="2">
         <v>10120</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>354</v>
+      <c r="C59" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -6127,10 +5893,10 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="5"/>
+      <c r="V59" s="8"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="5"/>
+      <c r="Y59" s="8"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -6139,274 +5905,267 @@
       <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="2">
         <v>10121</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-    </row>
-    <row r="61" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="C60" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="2">
         <v>10127</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D61" s="23">
+      <c r="C61" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D61" s="4">
         <v>42461</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="4">
         <v>33795</v>
       </c>
-      <c r="F61" s="23">
-        <f>D61</f>
+      <c r="F61" s="4">
         <v>42461</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K61" s="19" t="s">
+      <c r="G61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="U61" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="V61" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="W61" s="19">
+      <c r="L61" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="W61" s="1">
         <v>9861443901</v>
       </c>
-      <c r="X61" s="19">
+      <c r="X61" s="1">
         <v>9078896412</v>
       </c>
-      <c r="Y61" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z61" s="19">
+      <c r="Y61" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z61" s="1">
         <v>9937717373</v>
       </c>
-      <c r="AA61" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB61" s="19"/>
-    </row>
-    <row r="62" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="AA61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="2">
         <v>10135</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="U62" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="V62" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="W62" s="19">
+      <c r="C62" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V62" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="W62" s="1">
         <v>7077256190</v>
       </c>
-      <c r="X62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y62" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA62" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB62" s="19"/>
+      <c r="X62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y62" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="2">
         <v>10137</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="19"/>
-      <c r="AA63" s="19"/>
-      <c r="AB63" s="19"/>
+      <c r="C63" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="2">
         <v>10138</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="19"/>
-      <c r="AA64" s="19"/>
-      <c r="AB64" s="19"/>
-    </row>
-    <row r="65" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="C64" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65" s="2">
         <v>10140</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>371</v>
+      <c r="C65" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="D65" s="4">
         <v>42522</v>
@@ -6415,65 +6174,60 @@
         <v>35986</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" ref="F65:F85" si="0">D65</f>
         <v>42522</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V65" s="5" t="s">
-        <v>374</v>
+        <v>122</v>
+      </c>
+      <c r="V65" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="W65" s="1">
         <v>9658621967</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y65" s="5" t="s">
-        <v>374</v>
+        <v>42</v>
+      </c>
+      <c r="Y65" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB65" s="1"/>
     </row>
@@ -6481,1194 +6235,1150 @@
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="2">
         <v>10141</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="23">
+      <c r="C66" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" s="4">
         <v>42498</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4">
-        <f t="shared" si="0"/>
         <v>42498</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="19">
+      <c r="G66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="1">
         <v>8658341695</v>
       </c>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-    </row>
-    <row r="67" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="X66" s="1"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="2">
         <v>10142</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D67" s="23">
+      <c r="C67" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D67" s="4">
         <v>42519</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="4">
         <v>33543</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="0"/>
         <v>42519</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O67" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="P67" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q67" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="U67" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="V67" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="W67" s="19">
+      <c r="G67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="W67" s="1">
         <v>977862493</v>
       </c>
-      <c r="X67" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y67" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z67" s="19">
+      <c r="X67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y67" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z67" s="1">
         <v>9040092177</v>
       </c>
-      <c r="AA67" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB67" s="19"/>
+      <c r="AA67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="2">
         <v>10145</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="D68" s="23">
+      <c r="C68" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D68" s="4">
         <v>42527</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="4">
-        <f t="shared" si="0"/>
         <v>42527</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="12">
         <v>10146</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D69" s="29">
+      <c r="C69" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" s="14">
         <v>42570</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="14">
         <v>30507</v>
       </c>
-      <c r="F69" s="30">
-        <f t="shared" si="0"/>
+      <c r="F69" s="14">
         <v>42570</v>
       </c>
-      <c r="G69" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="J69" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K69" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L69" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="O69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="S69" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
+      <c r="G69" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="2">
         <v>10148</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="D70" s="23">
+      <c r="C70" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="4">
         <v>42522</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="4">
-        <f t="shared" si="0"/>
         <v>42522</v>
       </c>
-      <c r="G70" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
+      <c r="G70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="2">
         <v>10151</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D71" s="23">
+      <c r="C71" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="4">
         <v>42461</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4">
-        <f t="shared" si="0"/>
         <v>42461</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="2">
         <v>10154</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="D72" s="23">
+      <c r="C72" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72" s="4">
         <v>42552</v>
       </c>
-      <c r="E72" s="23"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4">
-        <f t="shared" si="0"/>
         <v>42552</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="I72" s="19" t="s">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
+      <c r="I72" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="2">
         <v>10155</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="D73" s="23">
+      <c r="C73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D73" s="4">
         <v>42552</v>
       </c>
-      <c r="E73" s="23"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4">
-        <f t="shared" si="0"/>
         <v>42552</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="19"/>
-      <c r="X73" s="19"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="19"/>
-      <c r="AA73" s="19"/>
-      <c r="AB73" s="19"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="2">
         <v>10156</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D74" s="23">
+      <c r="C74" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" s="4">
         <v>42583</v>
       </c>
-      <c r="E74" s="23"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4">
-        <f t="shared" si="0"/>
         <v>42583</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="2">
         <v>10157</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D75" s="23">
+      <c r="C75" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="4">
         <v>42578</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="4">
-        <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="2">
         <v>10158</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D76" s="23">
+      <c r="C76" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="4">
         <v>42625</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4">
-        <f t="shared" si="0"/>
         <v>42625</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="19"/>
-      <c r="X76" s="19"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="19"/>
-      <c r="AA76" s="19"/>
-      <c r="AB76" s="19"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="2">
         <v>10159</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="D77" s="23">
+      <c r="C77" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="4">
         <v>42664</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="4">
-        <f t="shared" si="0"/>
         <v>42664</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="19"/>
-      <c r="AA77" s="19"/>
-      <c r="AB77" s="19"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="2">
         <v>10160</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D78" s="23">
+      <c r="C78" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="4">
         <v>42651</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="4">
-        <f t="shared" si="0"/>
         <v>42651</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="19"/>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="19"/>
-      <c r="AB78" s="19"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="2">
         <v>10161</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="D79" s="23">
+      <c r="C79" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="4">
         <v>42649</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4">
-        <f t="shared" si="0"/>
         <v>42649</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="2">
         <v>10162</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="D80" s="23">
+      <c r="C80" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="4">
         <v>42644</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4">
-        <f t="shared" si="0"/>
         <v>42644</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="19"/>
-      <c r="X80" s="19"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="19"/>
-      <c r="AB80" s="19"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="2">
         <v>10163</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="D81" s="23">
+      <c r="C81" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" s="4">
         <v>42675</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4">
-        <f t="shared" si="0"/>
         <v>42675</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="2">
         <v>10164</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="D82" s="23">
+      <c r="C82" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D82" s="4">
         <v>42685</v>
       </c>
-      <c r="E82" s="23"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="4">
-        <f t="shared" si="0"/>
         <v>42685</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="24"/>
-      <c r="Z82" s="19"/>
-      <c r="AA82" s="19"/>
-      <c r="AB82" s="19"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="2">
         <v>10166</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="D83" s="23">
+      <c r="C83" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D83" s="4">
         <v>42675</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="4">
-        <f t="shared" si="0"/>
         <v>42675</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="19"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="19"/>
-      <c r="AA83" s="19"/>
-      <c r="AB83" s="19"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="2">
         <v>10167</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D84" s="23">
+      <c r="C84" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" s="4">
         <v>42710</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="4">
-        <f t="shared" si="0"/>
         <v>42710</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="19"/>
-      <c r="AA84" s="19"/>
-      <c r="AB84" s="19"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="2">
         <v>10168</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="D85" s="23">
+      <c r="C85" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85" s="4">
         <v>42716</v>
       </c>
-      <c r="E85" s="23"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4">
-        <f t="shared" si="0"/>
         <v>42716</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="19"/>
-      <c r="X85" s="19"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="19"/>
-      <c r="AA85" s="19"/>
-      <c r="AB85" s="19"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="2">
         <v>10169</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D86" s="23">
+      <c r="C86" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D86" s="4">
         <v>43838</v>
       </c>
-      <c r="E86" s="23"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4">
         <v>43839</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="19"/>
-      <c r="X86" s="19"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="19"/>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="19"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="2">
         <v>10170</v>
       </c>
-      <c r="C87" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D87" s="23">
+      <c r="C87" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D87" s="4">
         <v>42716</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4">
         <v>42716</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="19"/>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="19"/>
-      <c r="AA87" s="19"/>
-      <c r="AB87" s="19"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="2">
         <v>10171</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D88" s="23">
+      <c r="C88" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="4">
         <v>42717</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4">
         <v>42716</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="19"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="19"/>
-      <c r="AA88" s="19"/>
-      <c r="AB88" s="19"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="2">
         <v>10172</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="19"/>
-      <c r="AB89" s="19"/>
+      <c r="C89" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="2">
         <v>10173</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="19"/>
-      <c r="AA90" s="19"/>
-      <c r="AB90" s="19"/>
+      <c r="C90" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q13" r:id="rId1" xr:uid="{FF9F8CF7-5C54-4F11-8A47-A45A15393024}"/>
-    <hyperlink ref="Q28" r:id="rId2" xr:uid="{55C7271D-667F-44A6-B704-AD85380BAFA4}"/>
-    <hyperlink ref="Q2" r:id="rId3" xr:uid="{DA6B1C3B-BABC-41A8-BAA8-1BFAAA90C288}"/>
-    <hyperlink ref="Q30" r:id="rId4" xr:uid="{8C3AED08-9F76-4298-B3D9-CBC382B7CE76}"/>
-    <hyperlink ref="Q32" r:id="rId5" xr:uid="{3C3007AF-53CA-4C22-BD25-654D34513D82}"/>
-    <hyperlink ref="Q38" r:id="rId6" xr:uid="{C72560CD-EF1A-4D03-BF69-6B0A22DF68B4}"/>
-    <hyperlink ref="P28" r:id="rId7" xr:uid="{D6CE4361-C922-48F8-B9F7-8BCF42F3B838}"/>
-    <hyperlink ref="Q43" r:id="rId8" xr:uid="{236028D4-B064-4332-9898-C7505C1A0BE6}"/>
-    <hyperlink ref="Q5" r:id="rId9" xr:uid="{F260AB7C-4D61-4FE0-96F9-A4DA80BFBE6B}"/>
-    <hyperlink ref="P5" r:id="rId10" xr:uid="{8BC9305F-AAF2-47C7-9477-13A52B6E7B55}"/>
-    <hyperlink ref="Q41" r:id="rId11" xr:uid="{1595FEE2-CEDB-4D34-A79E-97A6DBFDDEE9}"/>
-    <hyperlink ref="Q51" r:id="rId12" xr:uid="{9CA66266-F2E3-4510-A2FE-4C94EC4BC039}"/>
-    <hyperlink ref="Q3" r:id="rId13" xr:uid="{25EC6B98-BD42-4F18-B57C-2A3AE2F46727}"/>
-    <hyperlink ref="Q67" r:id="rId14" xr:uid="{D01CA552-BE2A-44C7-ACF8-3F335BF6E042}"/>
-    <hyperlink ref="Q61" r:id="rId15" xr:uid="{6FAAB4A7-EBCD-4482-9706-4A53BCA8976F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>